--- a/medicine/Sexualité et sexologie/Fantasme_sexuel/Fantasme_sexuel.xlsx
+++ b/medicine/Sexualité et sexologie/Fantasme_sexuel/Fantasme_sexuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,9 +518,11 @@
           <t>Définition du fantasme sexuel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fantasme sexuel (ou fantasme érotique) est une représentation d'un acte imaginaire ou intentionnel provoquant du désir ou de l'excitation sexuelle[1]. Les fantasmes sexuels peuvent consister en des récits élaborés ou des pensées éphémères [2]. Ils peuvent être constitué d'un image fantaisiste, réaliste ou mettre en scène des souvenirs vécus.  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fantasme sexuel (ou fantasme érotique) est une représentation d'un acte imaginaire ou intentionnel provoquant du désir ou de l'excitation sexuelle. Les fantasmes sexuels peuvent consister en des récits élaborés ou des pensées éphémères . Ils peuvent être constitué d'un image fantaisiste, réaliste ou mettre en scène des souvenirs vécus.  
 Le fantasme sexuel peut survenir de façon intentionnelle, spontanée ou provoquée par des stimulus externes.   
 </t>
         </is>
